--- a/mbs-perturbation/greedy/elm/nearmiss/greedy_elm_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/greedy/elm/nearmiss/greedy_elm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E2" t="n">
-        <v>0.35</v>
+        <v>0.8181818181818181</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.6115702479338843</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.6880952380952381</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.9090909090909092</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.783076923076923</v>
       </c>
       <c r="E4" t="n">
-        <v>0.425</v>
+        <v>0.7148760330578512</v>
       </c>
     </row>
   </sheetData>
